--- a/results/Daily_Impacts_absolute.xlsx
+++ b/results/Daily_Impacts_absolute.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/soham/Desktop/Capstone/Impact_of_Manhattan_Congestion_Surcharge_on_For-Hire_Vehicles/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF17440E-0B5D-BB41-928C-64CFF64CA44F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E866F50-2204-774F-9BB0-F6B2414D4F43}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{F420F9A0-B072-B346-8759-8C157B7C071E}"/>
   </bookViews>
@@ -58,18 +58,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <color theme="1"/>
-      <name val="Var(--jp-code-font-family)"/>
     </font>
   </fonts>
   <fills count="2">
@@ -95,7 +90,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -413,7 +408,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -425,63 +420,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17">
-      <c r="A2" t="s">
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>1448265</v>
-      </c>
-      <c r="C2">
-        <v>71.331999999999994</v>
+        <v>1756040</v>
+      </c>
+      <c r="C2" s="1">
+        <v>80.61</v>
       </c>
       <c r="D2" s="1">
-        <v>10.170999999999999</v>
+        <v>8.4719999999999995</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="17">
-      <c r="A3" t="s">
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>1466962</v>
-      </c>
-      <c r="C3">
-        <f>C2+0.2305</f>
-        <v>71.5625</v>
-      </c>
-      <c r="D3">
-        <f>D2-0.198</f>
-        <v>9.972999999999999</v>
+        <v>1778084</v>
+      </c>
+      <c r="C3" s="1">
+        <f>C2+0.538</f>
+        <v>81.147999999999996</v>
+      </c>
+      <c r="D3" s="1">
+        <f>D2+0.0293</f>
+        <v>8.5012999999999987</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="17">
-      <c r="A4" t="s">
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>1568531</v>
-      </c>
-      <c r="C4">
-        <f>C2+1.4388</f>
-        <v>72.770799999999994</v>
-      </c>
-      <c r="D4">
-        <f>D2-0.591</f>
-        <v>9.58</v>
+        <v>1900406</v>
+      </c>
+      <c r="C4" s="1">
+        <f>C2+2.721</f>
+        <v>83.331000000000003</v>
+      </c>
+      <c r="D4" s="1">
+        <f>D2-0.03</f>
+        <v>8.4420000000000002</v>
       </c>
     </row>
   </sheetData>

--- a/results/Daily_Impacts_absolute.xlsx
+++ b/results/Daily_Impacts_absolute.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/soham/Desktop/Capstone/Impact_of_Manhattan_Congestion_Surcharge_on_For-Hire_Vehicles/results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/soham/Library/Containers/com.microsoft.Excel/Data/Desktop/Capstone/Impact_of_Manhattan_Congestion_Surcharge_on_For-Hire_Vehicles/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E866F50-2204-774F-9BB0-F6B2414D4F43}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56A72543-11AC-4C4F-A494-EE323413371E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{F420F9A0-B072-B346-8759-8C157B7C071E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Scenarios</t>
   </si>
@@ -52,6 +52,33 @@
   </si>
   <si>
     <t>Average Commute Cost ($)</t>
+  </si>
+  <si>
+    <t>1,778,146 +- 3,383</t>
+  </si>
+  <si>
+    <t>1,756,041 +- 6.7e^(-9)</t>
+  </si>
+  <si>
+    <t>1,900,523 +- 7,377</t>
+  </si>
+  <si>
+    <t>80.603  +- 0.064</t>
+  </si>
+  <si>
+    <t>80.488 +- 0.02</t>
+  </si>
+  <si>
+    <t>8.473 +- 0.02</t>
+  </si>
+  <si>
+    <t>8.193 +- 0.01</t>
+  </si>
+  <si>
+    <t>8.432 +- 0.07</t>
+  </si>
+  <si>
+    <t>80.953 +- 0.037</t>
   </si>
 </sst>
 </file>
@@ -408,13 +435,13 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="39.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.5" bestFit="1" customWidth="1"/>
   </cols>
@@ -437,46 +464,42 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
-        <v>1756040</v>
-      </c>
-      <c r="C2" s="1">
-        <v>80.61</v>
-      </c>
-      <c r="D2" s="1">
-        <v>8.4719999999999995</v>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
-        <v>1778084</v>
-      </c>
-      <c r="C3" s="1">
-        <f>C2+0.538</f>
-        <v>81.147999999999996</v>
-      </c>
-      <c r="D3" s="1">
-        <f>D2+0.0293</f>
-        <v>8.5012999999999987</v>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
-        <v>1900406</v>
-      </c>
-      <c r="C4" s="1">
-        <f>C2+2.721</f>
-        <v>83.331000000000003</v>
-      </c>
-      <c r="D4" s="1">
-        <f>D2-0.03</f>
-        <v>8.4420000000000002</v>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
